--- a/氣象性能評估工具V2/data/obs/2016-06-15_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-15_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="224">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-15-00</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>29.3</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-15-01</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>23.5</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>28.5</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-15-04</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>24.2</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>25.8</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-15-05</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>27.0</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>29.6</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-15-06</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>25.7</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>2016-06-15-08</t>
   </si>
   <si>
-    <t>25.2</t>
-  </si>
-  <si>
     <t>30.7</t>
   </si>
   <si>
@@ -511,12 +511,12 @@
     <t>34.9</t>
   </si>
   <si>
+    <t>25.6</t>
+  </si>
+  <si>
     <t>2016-06-15-11</t>
   </si>
   <si>
-    <t>25.6</t>
-  </si>
-  <si>
     <t>35.0</t>
   </si>
   <si>
@@ -667,19 +667,19 @@
     <t>2016-06-15-21</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-15-22</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>6.0</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-15-23</t>
-  </si>
-  <si>
-    <t>23.0</t>
   </si>
   <si>
     <t>22.0</t>
@@ -692,6 +692,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -721,8 +724,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,11 +1105,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1178,11 +1182,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1255,7 +1259,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B4" t="s">
@@ -1332,7 +1336,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
@@ -1409,11 +1413,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -1486,11 +1490,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -1563,11 +1567,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
@@ -1640,11 +1644,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -1717,11 +1721,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -1794,7 +1798,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B11" t="s">
@@ -1871,7 +1875,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B12" t="s">
@@ -1948,11 +1952,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -2025,7 +2029,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B14" t="s">
@@ -2102,11 +2106,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -2179,7 +2183,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B16" t="s">
@@ -2256,7 +2260,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B17" t="s">
@@ -2333,7 +2337,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B18" t="s">
@@ -2410,7 +2414,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B19" t="s">
@@ -2487,7 +2491,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B20" t="s">
@@ -2564,7 +2568,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B21" t="s">
@@ -2607,7 +2611,7 @@
         <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
         <v>211</v>
@@ -2641,7 +2645,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B22" t="s">
@@ -2718,7 +2722,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B23" t="s">
@@ -2795,11 +2799,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
         <v>217</v>
-      </c>
-      <c r="B24" t="s">
-        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -2872,11 +2876,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
         <v>220</v>
-      </c>
-      <c r="B25" t="s">
-        <v>221</v>
       </c>
       <c r="C25" t="s">
         <v>121</v>
